--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DFE579-B523-4C45-8CB9-3993977D0A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65361F9-582E-420D-A93F-9AF3A734310B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="DataValidation" sheetId="34" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Read me'!$A$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Read me'!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="686">
   <si>
     <t>Title</t>
   </si>
@@ -1680,57 +1680,31 @@
     <t>CommitedStarton</t>
   </si>
   <si>
-    <t>Committed or Baseline Start date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>Close On (Committed)</t>
   </si>
   <si>
     <t>CommitedEndon</t>
   </si>
   <si>
-    <t>Committed or Baseline Finish date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>Start On (Forecast)</t>
   </si>
   <si>
     <t>TargetStartOn</t>
   </si>
   <si>
-    <t>Forecasted or Planned start date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>Close On (Forecast)</t>
   </si>
   <si>
     <t>TargetEndOn</t>
   </si>
   <si>
-    <t>Forecasted or Planned finish date/
-Date on which we plan to close the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>Start On (Actual)</t>
   </si>
   <si>
     <t>Starton</t>
   </si>
   <si>
-    <t>Actual Start date of the Entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>Close On (Actual)</t>
-  </si>
-  <si>
-    <t>Actual Finish date of the Entity/
-Date on which the entity was actually marked as Closed
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>SeverityUId</t>
@@ -1743,10 +1717,6 @@
     <t>Identified On</t>
   </si>
   <si>
-    <t>The date on which the enitity was identified/requested/raised.
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -1784,10 +1754,6 @@
   </si>
   <si>
     <t>Decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All datetime should be of "YYYY-MM-DDTHH:MM:SSZ" format. 
-</t>
   </si>
   <si>
     <t>Data type</t>
@@ -1841,9 +1807,6 @@
 Default: No</t>
   </si>
   <si>
-    <t>Related To</t>
-  </si>
-  <si>
     <t>Category(Decision entity) - from CDM</t>
   </si>
   <si>
@@ -2027,59 +1990,152 @@
     <t>Attributes changed : Source Created By, Source Modified By</t>
   </si>
   <si>
+    <t>Related</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>ListOfObject</t>
+  </si>
+  <si>
+    <t>Phase and Workstream has been included for "Issue","Risk", "Bug", "Decision" and "Action"</t>
+  </si>
+  <si>
+    <t>Mahendroo Achla</t>
+  </si>
+  <si>
+    <t>Updated the read me section for the line DateFormat from 'All datetime should be of "yyyy-mm-dd hh:mm:ss.sss" format. ' to 'All datetime should be of "YYYY-MM-DDTHH:MM:SSZ" format.'</t>
+  </si>
+  <si>
+    <t>Updated the desscription for all the date and time with formula "YYYY-MM-DDTHH:MM:SSZ" .'</t>
+  </si>
+  <si>
+    <t>Committed or Baseline Start date of the entity
+Date Time and and date format &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Committed or Baseline Finish date of the entity
+Date Time and and date format &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Forecasted or Planned start date of the entity
+Date Time and and date format &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Forecasted or Planned finish date/
+Date on which we plan to close the entity
+Date Time and and date format &amp; &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Actual Start date of the Entity
+Date Time and and date format &amp; &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Actual Finish date of the Entity/
+Date on which the entity was actually marked as Closed
+Date Time and and date format &amp; &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>The date on which the enitity was identified/requested/raised.
+Date Time and and date format &amp; &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+  </si>
+  <si>
+    <t>Read me section updated for  "DateFormat" under "Good Practices"  as per enhancement 1548517</t>
+  </si>
+  <si>
+    <t>All datetime should be of  format &amp; formula "YYYY-MM-DDTHH:MM:SSZ".
+Note : To validate the Date Format configured in the DateTime fields, check the Format Cell with General option.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
     <t>New</t>
   </si>
   <si>
-    <t>Very Low</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Project Management 1</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>Inactive</t>
   </si>
   <si>
-    <t>Medium</t>
+    <t>High</t>
   </si>
   <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>High</t>
+    <t>Detailed Technical Design</t>
+  </si>
+  <si>
+    <t>Very High</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Very High</t>
-  </si>
-  <si>
-    <t>testGU</t>
-  </si>
-  <si>
-    <t>92906</t>
-  </si>
-  <si>
-    <t>Decision_AutomationData_GenericUploader</t>
+    <t>Component Test</t>
+  </si>
+  <si>
+    <t>Assembly Test</t>
+  </si>
+  <si>
+    <t>Integration Test</t>
+  </si>
+  <si>
+    <t>Product Test</t>
+  </si>
+  <si>
+    <t>Performance and Service Level Test</t>
+  </si>
+  <si>
+    <t>User Acceptance Test</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Infrastructure 1</t>
+  </si>
+  <si>
+    <t>Decision_AutomationData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2164,12 +2220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -2189,6 +2239,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2438,7 +2494,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2491,8 +2547,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2502,10 +2556,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2593,10 +2643,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2624,7 +2674,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,10 +2690,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2661,7 +2711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2678,7 +2728,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2696,6 +2746,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3021,377 +3100,413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FC6D2C-D26F-4A0D-A230-125B5010EEAF}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="10.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="59.44140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="16.21875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="10.77734375" collapsed="false"/>
-    <col min="5" max="16384" style="5" width="8.77734375" collapsed="false"/>
+    <col min="1" max="1" width="10.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="C2" s="58">
+        <v>597</v>
+      </c>
+      <c r="C2" s="54">
         <v>44113</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E6" s="75"/>
+        <v>560</v>
+      </c>
+      <c r="E6" s="71"/>
       <c r="F6" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C9" s="58">
+        <v>600</v>
+      </c>
+      <c r="C9" s="54">
         <v>43992</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E9" s="75"/>
+        <v>560</v>
+      </c>
+      <c r="E9" s="71"/>
       <c r="F9" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="76">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="72">
         <v>10</v>
       </c>
-      <c r="B10" s="77" t="s">
-        <v>610</v>
-      </c>
-      <c r="C10" s="78">
+      <c r="B10" s="73" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="74">
         <v>44022</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E10" s="79"/>
+        <v>560</v>
+      </c>
+      <c r="E10" s="75"/>
       <c r="F10" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="C11" s="58">
+        <v>610</v>
+      </c>
+      <c r="C11" s="54">
         <v>44022</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="C12" s="58">
+        <v>613</v>
+      </c>
+      <c r="C12" s="54">
         <v>44053</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="C13" s="58">
+        <v>614</v>
+      </c>
+      <c r="C13" s="54">
         <v>44053</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="C14" s="58">
+        <v>615</v>
+      </c>
+      <c r="C14" s="54">
         <v>44053</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C15" s="58">
+        <v>618</v>
+      </c>
+      <c r="C15" s="54">
         <v>44175</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="C16" s="58">
+        <v>627</v>
+      </c>
+      <c r="C16" s="54">
         <v>44120</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="C17" s="58">
+        <v>629</v>
+      </c>
+      <c r="C17" s="54">
         <v>44125</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="C18" s="58">
+        <v>631</v>
+      </c>
+      <c r="C18" s="54">
         <v>44169</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="90">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="86">
         <v>19</v>
       </c>
-      <c r="B19" s="91" t="s">
-        <v>653</v>
-      </c>
-      <c r="C19" s="92">
+      <c r="B19" s="87" t="s">
+        <v>644</v>
+      </c>
+      <c r="C19" s="88">
         <v>44263</v>
       </c>
-      <c r="D19" s="93" t="s">
-        <v>641</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="D19" s="89" t="s">
+        <v>632</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C20" s="92">
+        <v>44363</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>649</v>
+      </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C21" s="92">
+        <v>44393</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>649</v>
+      </c>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C22" s="92">
+        <v>44403</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>649</v>
+      </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="97">
+        <v>23</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>660</v>
+      </c>
+      <c r="C23" s="99">
+        <v>44489</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>560</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3401,3604 +3516,3638 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7364B18-9106-44A1-8915-0903EE156E9A}">
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="50" width="37.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="50" width="45.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="50" width="19.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="50" width="33.77734375" collapsed="false"/>
-    <col min="5" max="16384" style="2" width="9.21875" collapsed="false"/>
+    <col min="1" max="1" width="37.08984375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" style="46" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>576</v>
+      <c r="E1" s="25" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="61" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="E6" s="61" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="100" t="s">
+        <v>661</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>565</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
-        <v>566</v>
-      </c>
-      <c r="E8" s="61" t="s">
+    <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="E8" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>578</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="45"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:5" ht="52" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="82" t="s">
-        <v>643</v>
+      <c r="B15" s="78" t="s">
+        <v>634</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>500</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>584</v>
+    <row r="17" spans="1:5" ht="33.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>576</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>501</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>649</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>651</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>583</v>
-      </c>
-      <c r="D18" s="85" t="s">
+    <row r="18" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
+        <v>640</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>642</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>575</v>
+      </c>
+      <c r="D18" s="81" t="s">
         <v>540</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
-        <v>650</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>583</v>
-      </c>
-      <c r="D19" s="85" t="s">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
+        <v>641</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>643</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" s="81" t="s">
         <v>506</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>612</v>
+    <row r="20" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>603</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>617</v>
-      </c>
-      <c r="E20" s="61" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>608</v>
+      </c>
+      <c r="E20" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>613</v>
+    <row r="21" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>604</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>616</v>
-      </c>
-      <c r="E21" s="61" t="s">
+        <v>577</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>607</v>
+      </c>
+      <c r="E21" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:5" ht="91" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>502</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="E22" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="E22" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:5" ht="65" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>543</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>544</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="65" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="B24" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>546</v>
-      </c>
-      <c r="B24" s="16" t="s">
+    <row r="25" spans="1:5" ht="65" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="C25" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="E25" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+    <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C26" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="52" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>551</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="B27" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="E27" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>552</v>
-      </c>
-      <c r="B26" s="16" t="s">
+    <row r="28" spans="1:5" ht="78" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>553</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>558</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>505</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="E28" s="61" t="s">
+        <v>657</v>
+      </c>
+      <c r="E28" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:5" ht="52" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="E29" s="61" t="s">
+        <v>555</v>
+      </c>
+      <c r="E29" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:5" ht="52" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>504</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+    <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>503</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
-        <v>562</v>
+    <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>556</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>620</v>
+        <v>658</v>
+      </c>
+      <c r="E32" s="57"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>611</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>589</v>
-      </c>
-      <c r="E33" s="61" t="s">
+        <v>580</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>581</v>
+      </c>
+      <c r="E33" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>621</v>
+    <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>612</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>591</v>
-      </c>
-      <c r="E34" s="61" t="s">
+        <v>580</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>583</v>
+      </c>
+      <c r="E34" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>569</v>
+    <row r="35" spans="1:5" ht="52" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>562</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="E35" s="61" t="s">
+        <v>599</v>
+      </c>
+      <c r="E35" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>570</v>
+    <row r="36" spans="1:5" ht="65" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>563</v>
       </c>
       <c r="B36" s="16"/>
-      <c r="C36" s="67" t="s">
-        <v>592</v>
+      <c r="C36" s="63" t="s">
+        <v>584</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="E36" s="61" t="s">
+        <v>585</v>
+      </c>
+      <c r="E36" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="84" t="s">
+        <v>637</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="101" t="s">
+        <v>639</v>
+      </c>
+      <c r="E37" s="82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="84" t="s">
+        <v>638</v>
+      </c>
+      <c r="B38" s="81"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="91" t="s">
         <v>646</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="94" t="s">
-        <v>648</v>
-      </c>
-      <c r="E37" s="86" t="s">
+      <c r="B39" s="81" t="s">
+        <v>646</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="D39" s="90"/>
+      <c r="E39" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="88" t="s">
-        <v>647</v>
-      </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="86" t="s">
+    <row r="40" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>574</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
+    <row r="41" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
+      <c r="B41" s="81" t="s">
+        <v>498</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="52" t="s">
+      <c r="B42" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-    </row>
-    <row r="42" spans="1:5" ht="29.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+    <row r="43" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+    </row>
+    <row r="44" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-    </row>
-    <row r="43" spans="1:5" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="40" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="12" t="s">
+    <row r="46" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="40" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="12" t="s">
+    <row r="47" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="40" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="12" t="s">
+    <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="40" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="12" t="s">
+    <row r="49" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="40" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="12" t="s">
+    <row r="50" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="40" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="12" t="s">
+    <row r="51" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="40" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="12" t="s">
+    <row r="52" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="40" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="12" t="s">
+    <row r="53" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="40" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="12" t="s">
+    <row r="54" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+      <c r="B54" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="40" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="12" t="s">
+    <row r="55" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="40" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="12" t="s">
+    <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="40"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="12" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="40"/>
-    </row>
-    <row r="56" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="36"/>
+    </row>
+    <row r="58" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B58" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="40" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="13" t="s">
+    <row r="59" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="40" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="13" t="s">
+    <row r="60" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="40" t="s">
+      <c r="C60" s="13"/>
+      <c r="D60" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="13" t="s">
+    <row r="61" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+      <c r="B61" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="40" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="13" t="s">
+    <row r="62" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+      <c r="B62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="40" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="14" t="s">
+    <row r="63" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
+      <c r="B63" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="40" t="s">
+      <c r="C63" s="14"/>
+      <c r="D63" s="36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+    <row r="64" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="40" t="s">
+      <c r="B64" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+    <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B65" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="40" t="s">
+      <c r="C65" s="51"/>
+      <c r="D65" s="36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="55" t="s">
+    <row r="66" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+      <c r="B66" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="40" t="s">
+      <c r="C66" s="51"/>
+      <c r="D66" s="36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="55" t="s">
+    <row r="67" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="40" t="s">
+      <c r="C67" s="51"/>
+      <c r="D67" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="55" t="s">
+    <row r="68" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A68" s="35"/>
+      <c r="B68" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="40" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="55" t="s">
+    <row r="69" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A69" s="35"/>
+      <c r="B69" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="40" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="55" t="s">
+    <row r="70" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
+      <c r="B70" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="40" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="55" t="s">
+    <row r="71" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A71" s="35"/>
+      <c r="B71" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="40" t="s">
+      <c r="C71" s="51"/>
+      <c r="D71" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="55" t="s">
+    <row r="72" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="40" t="s">
+      <c r="C72" s="51"/>
+      <c r="D72" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-      <c r="B71" s="55" t="s">
+    <row r="73" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+      <c r="B73" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="40" t="s">
+      <c r="C73" s="51"/>
+      <c r="D73" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="55" t="s">
+    <row r="74" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
+      <c r="B74" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="40" t="s">
+      <c r="C74" s="51"/>
+      <c r="D74" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="55" t="s">
+    <row r="75" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="B75" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="40" t="s">
+      <c r="C75" s="51"/>
+      <c r="D75" s="36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="55" t="s">
+    <row r="76" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+      <c r="B76" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="40" t="s">
+      <c r="C76" s="51"/>
+      <c r="D76" s="36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="55" t="s">
+    <row r="77" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A77" s="35"/>
+      <c r="B77" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="40" t="s">
+      <c r="C77" s="51"/>
+      <c r="D77" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="55" t="s">
+    <row r="78" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A78" s="35"/>
+      <c r="B78" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="55"/>
-      <c r="D76" s="40" t="s">
+      <c r="C78" s="51"/>
+      <c r="D78" s="36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
-      <c r="B77" s="55" t="s">
+    <row r="79" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A79" s="35"/>
+      <c r="B79" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="40" t="s">
+      <c r="C79" s="51"/>
+      <c r="D79" s="36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="55" t="s">
+    <row r="80" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A80" s="35"/>
+      <c r="B80" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="40" t="s">
+      <c r="C80" s="51"/>
+      <c r="D80" s="36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="B79" s="55" t="s">
+    <row r="81" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+      <c r="B81" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="40" t="s">
+      <c r="C81" s="51"/>
+      <c r="D81" s="36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="55" t="s">
+    <row r="82" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+      <c r="B82" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="40" t="s">
+      <c r="C82" s="51"/>
+      <c r="D82" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="55" t="s">
+    <row r="83" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+      <c r="B83" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="40" t="s">
+      <c r="C83" s="51"/>
+      <c r="D83" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="55" t="s">
+    <row r="84" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A84" s="35"/>
+      <c r="B84" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="55"/>
-      <c r="D82" s="40" t="s">
+      <c r="C84" s="51"/>
+      <c r="D84" s="36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="55" t="s">
+    <row r="85" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A85" s="35"/>
+      <c r="B85" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="40" t="s">
+      <c r="C85" s="51"/>
+      <c r="D85" s="36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="55" t="s">
+    <row r="86" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A86" s="35"/>
+      <c r="B86" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="40" t="s">
+      <c r="C86" s="51"/>
+      <c r="D86" s="36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
-      <c r="B85" s="55" t="s">
+    <row r="87" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A87" s="35"/>
+      <c r="B87" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="40" t="s">
+      <c r="C87" s="51"/>
+      <c r="D87" s="36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="55" t="s">
+    <row r="88" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A88" s="35"/>
+      <c r="B88" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="40" t="s">
+      <c r="C88" s="51"/>
+      <c r="D88" s="36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
-      <c r="B87" s="55" t="s">
+    <row r="89" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A89" s="35"/>
+      <c r="B89" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="55"/>
-      <c r="D87" s="40" t="s">
+      <c r="C89" s="51"/>
+      <c r="D89" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="55" t="s">
+    <row r="90" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
+      <c r="B90" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="40" t="s">
+      <c r="C90" s="51"/>
+      <c r="D90" s="36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="55" t="s">
+    <row r="91" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+      <c r="B91" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="40" t="s">
+      <c r="C91" s="51"/>
+      <c r="D91" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="55" t="s">
+    <row r="92" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+      <c r="B92" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="40" t="s">
+      <c r="C92" s="51"/>
+      <c r="D92" s="36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="55" t="s">
+    <row r="93" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="40" t="s">
+      <c r="C93" s="51"/>
+      <c r="D93" s="36" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="55" t="s">
+    <row r="94" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A94" s="35"/>
+      <c r="B94" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="40" t="s">
+      <c r="C94" s="51"/>
+      <c r="D94" s="36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="55" t="s">
+    <row r="95" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A95" s="35"/>
+      <c r="B95" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="40" t="s">
+      <c r="C95" s="51"/>
+      <c r="D95" s="36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="55" t="s">
+    <row r="96" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A96" s="35"/>
+      <c r="B96" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="55"/>
-      <c r="D94" s="40" t="s">
+      <c r="C96" s="51"/>
+      <c r="D96" s="36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
-      <c r="B95" s="55" t="s">
+    <row r="97" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A97" s="35"/>
+      <c r="B97" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C95" s="55"/>
-      <c r="D95" s="40" t="s">
+      <c r="C97" s="51"/>
+      <c r="D97" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
-      <c r="B96" s="55" t="s">
+    <row r="98" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A98" s="35"/>
+      <c r="B98" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="40" t="s">
+      <c r="C98" s="51"/>
+      <c r="D98" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="55" t="s">
+    <row r="99" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A99" s="35"/>
+      <c r="B99" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C97" s="55"/>
-      <c r="D97" s="40" t="s">
+      <c r="C99" s="51"/>
+      <c r="D99" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="55" t="s">
+    <row r="100" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A100" s="35"/>
+      <c r="B100" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="40" t="s">
+      <c r="C100" s="51"/>
+      <c r="D100" s="36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="55" t="s">
+    <row r="101" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A101" s="35"/>
+      <c r="B101" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="40" t="s">
+      <c r="C101" s="51"/>
+      <c r="D101" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="55" t="s">
+    <row r="102" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A102" s="35"/>
+      <c r="B102" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="40" t="s">
+      <c r="C102" s="51"/>
+      <c r="D102" s="36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="55" t="s">
+    <row r="103" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A103" s="35"/>
+      <c r="B103" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="40" t="s">
+      <c r="C103" s="51"/>
+      <c r="D103" s="36" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="55" t="s">
+    <row r="104" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A104" s="35"/>
+      <c r="B104" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="40" t="s">
+      <c r="C104" s="51"/>
+      <c r="D104" s="36" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="55" t="s">
+    <row r="105" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A105" s="35"/>
+      <c r="B105" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="40" t="s">
+      <c r="C105" s="51"/>
+      <c r="D105" s="36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="55" t="s">
+    <row r="106" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A106" s="35"/>
+      <c r="B106" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="55"/>
-      <c r="D104" s="40" t="s">
+      <c r="C106" s="51"/>
+      <c r="D106" s="36" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="55" t="s">
+    <row r="107" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A107" s="35"/>
+      <c r="B107" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="C105" s="55"/>
-      <c r="D105" s="40" t="s">
+      <c r="C107" s="51"/>
+      <c r="D107" s="36" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="55" t="s">
+    <row r="108" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A108" s="35"/>
+      <c r="B108" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C106" s="55"/>
-      <c r="D106" s="40" t="s">
+      <c r="C108" s="51"/>
+      <c r="D108" s="36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="55" t="s">
+    <row r="109" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A109" s="35"/>
+      <c r="B109" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="55"/>
-      <c r="D107" s="40" t="s">
+      <c r="C109" s="51"/>
+      <c r="D109" s="36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="55" t="s">
+    <row r="110" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A110" s="35"/>
+      <c r="B110" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="40" t="s">
+      <c r="C110" s="51"/>
+      <c r="D110" s="36" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="55" t="s">
+    <row r="111" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A111" s="35"/>
+      <c r="B111" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="40" t="s">
+      <c r="C111" s="51"/>
+      <c r="D111" s="36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="55" t="s">
+    <row r="112" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A112" s="35"/>
+      <c r="B112" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="40" t="s">
+      <c r="C112" s="51"/>
+      <c r="D112" s="36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="55" t="s">
+    <row r="113" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A113" s="35"/>
+      <c r="B113" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="55"/>
-      <c r="D111" s="40" t="s">
+      <c r="C113" s="51"/>
+      <c r="D113" s="36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
-      <c r="B112" s="55" t="s">
+    <row r="114" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A114" s="35"/>
+      <c r="B114" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C112" s="55"/>
-      <c r="D112" s="40" t="s">
+      <c r="C114" s="51"/>
+      <c r="D114" s="36" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="55" t="s">
+    <row r="115" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A115" s="35"/>
+      <c r="B115" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="55"/>
-      <c r="D113" s="40" t="s">
+      <c r="C115" s="51"/>
+      <c r="D115" s="36" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="55" t="s">
+    <row r="116" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A116" s="35"/>
+      <c r="B116" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C114" s="55"/>
-      <c r="D114" s="40" t="s">
+      <c r="C116" s="51"/>
+      <c r="D116" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
-      <c r="B115" s="55" t="s">
+    <row r="117" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A117" s="35"/>
+      <c r="B117" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="55"/>
-      <c r="D115" s="40" t="s">
+      <c r="C117" s="51"/>
+      <c r="D117" s="36" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="55" t="s">
+    <row r="118" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A118" s="35"/>
+      <c r="B118" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="40" t="s">
+      <c r="C118" s="51"/>
+      <c r="D118" s="36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
-      <c r="B117" s="55" t="s">
+    <row r="119" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A119" s="35"/>
+      <c r="B119" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C117" s="55"/>
-      <c r="D117" s="40" t="s">
+      <c r="C119" s="51"/>
+      <c r="D119" s="36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="55" t="s">
+    <row r="120" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A120" s="35"/>
+      <c r="B120" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C118" s="55"/>
-      <c r="D118" s="40" t="s">
+      <c r="C120" s="51"/>
+      <c r="D120" s="36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="55" t="s">
+    <row r="121" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A121" s="35"/>
+      <c r="B121" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="55"/>
-      <c r="D119" s="40" t="s">
+      <c r="C121" s="51"/>
+      <c r="D121" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="55" t="s">
+    <row r="122" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A122" s="35"/>
+      <c r="B122" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C120" s="55"/>
-      <c r="D120" s="40" t="s">
+      <c r="C122" s="51"/>
+      <c r="D122" s="36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="55" t="s">
+    <row r="123" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A123" s="35"/>
+      <c r="B123" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C121" s="55"/>
-      <c r="D121" s="40" t="s">
+      <c r="C123" s="51"/>
+      <c r="D123" s="36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
-      <c r="B122" s="55" t="s">
+    <row r="124" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A124" s="35"/>
+      <c r="B124" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="40" t="s">
+      <c r="C124" s="51"/>
+      <c r="D124" s="36" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="55" t="s">
+    <row r="125" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A125" s="35"/>
+      <c r="B125" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C123" s="55"/>
-      <c r="D123" s="40" t="s">
+      <c r="C125" s="51"/>
+      <c r="D125" s="36" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="55" t="s">
+    <row r="126" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A126" s="35"/>
+      <c r="B126" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="40" t="s">
+      <c r="C126" s="51"/>
+      <c r="D126" s="36" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="55" t="s">
+    <row r="127" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A127" s="35"/>
+      <c r="B127" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C125" s="55"/>
-      <c r="D125" s="40" t="s">
+      <c r="C127" s="51"/>
+      <c r="D127" s="36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="55" t="s">
+    <row r="128" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A128" s="35"/>
+      <c r="B128" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="C126" s="55"/>
-      <c r="D126" s="40" t="s">
+      <c r="C128" s="51"/>
+      <c r="D128" s="36" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="55" t="s">
+    <row r="129" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A129" s="35"/>
+      <c r="B129" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C127" s="55"/>
-      <c r="D127" s="40" t="s">
+      <c r="C129" s="51"/>
+      <c r="D129" s="36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="55" t="s">
+    <row r="130" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A130" s="35"/>
+      <c r="B130" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C128" s="55"/>
-      <c r="D128" s="40" t="s">
+      <c r="C130" s="51"/>
+      <c r="D130" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="55" t="s">
+    <row r="131" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A131" s="35"/>
+      <c r="B131" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="C129" s="55"/>
-      <c r="D129" s="40" t="s">
+      <c r="C131" s="51"/>
+      <c r="D131" s="36" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="55" t="s">
+    <row r="132" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A132" s="35"/>
+      <c r="B132" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="40" t="s">
+      <c r="C132" s="51"/>
+      <c r="D132" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
-      <c r="B131" s="55" t="s">
+    <row r="133" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A133" s="35"/>
+      <c r="B133" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C131" s="55"/>
-      <c r="D131" s="40" t="s">
+      <c r="C133" s="51"/>
+      <c r="D133" s="36" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
-      <c r="B132" s="55" t="s">
+    <row r="134" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A134" s="35"/>
+      <c r="B134" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="C132" s="55"/>
-      <c r="D132" s="40" t="s">
+      <c r="C134" s="51"/>
+      <c r="D134" s="36" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="55" t="s">
+    <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A135" s="35"/>
+      <c r="B135" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C133" s="55"/>
-      <c r="D133" s="40" t="s">
+      <c r="C135" s="51"/>
+      <c r="D135" s="36" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
-      <c r="B134" s="55" t="s">
+    <row r="136" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A136" s="35"/>
+      <c r="B136" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="40" t="s">
+      <c r="C136" s="51"/>
+      <c r="D136" s="36" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="55" t="s">
+    <row r="137" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A137" s="35"/>
+      <c r="B137" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C135" s="55"/>
-      <c r="D135" s="40" t="s">
+      <c r="C137" s="51"/>
+      <c r="D137" s="36" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="55" t="s">
+    <row r="138" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A138" s="35"/>
+      <c r="B138" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C136" s="55"/>
-      <c r="D136" s="40" t="s">
+      <c r="C138" s="51"/>
+      <c r="D138" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="55" t="s">
+    <row r="139" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A139" s="35"/>
+      <c r="B139" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C137" s="55"/>
-      <c r="D137" s="40" t="s">
+      <c r="C139" s="51"/>
+      <c r="D139" s="36" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
-      <c r="B138" s="55" t="s">
+    <row r="140" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A140" s="35"/>
+      <c r="B140" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C138" s="55"/>
-      <c r="D138" s="40" t="s">
+      <c r="C140" s="51"/>
+      <c r="D140" s="36" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="55" t="s">
+    <row r="141" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A141" s="35"/>
+      <c r="B141" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C139" s="55"/>
-      <c r="D139" s="40" t="s">
+      <c r="C141" s="51"/>
+      <c r="D141" s="36" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="55" t="s">
+    <row r="142" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A142" s="35"/>
+      <c r="B142" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="40" t="s">
+      <c r="C142" s="51"/>
+      <c r="D142" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
-      <c r="B141" s="55" t="s">
+    <row r="143" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A143" s="35"/>
+      <c r="B143" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="40" t="s">
+      <c r="C143" s="51"/>
+      <c r="D143" s="36" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
-      <c r="B142" s="55" t="s">
+    <row r="144" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A144" s="35"/>
+      <c r="B144" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C142" s="55"/>
-      <c r="D142" s="40" t="s">
+      <c r="C144" s="51"/>
+      <c r="D144" s="36" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
-      <c r="B143" s="55" t="s">
+    <row r="145" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A145" s="35"/>
+      <c r="B145" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C143" s="55"/>
-      <c r="D143" s="40" t="s">
+      <c r="C145" s="51"/>
+      <c r="D145" s="36" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
-      <c r="B144" s="55" t="s">
+    <row r="146" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A146" s="35"/>
+      <c r="B146" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C144" s="55"/>
-      <c r="D144" s="40" t="s">
+      <c r="C146" s="51"/>
+      <c r="D146" s="36" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="55" t="s">
+    <row r="147" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A147" s="35"/>
+      <c r="B147" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C145" s="55"/>
-      <c r="D145" s="40" t="s">
+      <c r="C147" s="51"/>
+      <c r="D147" s="36" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
-      <c r="B146" s="55" t="s">
+    <row r="148" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A148" s="35"/>
+      <c r="B148" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C146" s="55"/>
-      <c r="D146" s="40" t="s">
+      <c r="C148" s="51"/>
+      <c r="D148" s="36" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
-      <c r="B147" s="55" t="s">
+    <row r="149" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A149" s="35"/>
+      <c r="B149" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C147" s="55"/>
-      <c r="D147" s="40" t="s">
+      <c r="C149" s="51"/>
+      <c r="D149" s="36" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
-      <c r="B148" s="55" t="s">
+    <row r="150" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A150" s="35"/>
+      <c r="B150" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C148" s="55"/>
-      <c r="D148" s="40" t="s">
+      <c r="C150" s="51"/>
+      <c r="D150" s="36" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
-      <c r="B149" s="55" t="s">
+    <row r="151" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A151" s="35"/>
+      <c r="B151" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="55"/>
-      <c r="D149" s="40" t="s">
+      <c r="C151" s="51"/>
+      <c r="D151" s="36" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
-      <c r="B150" s="55" t="s">
+    <row r="152" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A152" s="35"/>
+      <c r="B152" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C150" s="55"/>
-      <c r="D150" s="40" t="s">
+      <c r="C152" s="51"/>
+      <c r="D152" s="36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
-      <c r="B151" s="55" t="s">
+    <row r="153" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A153" s="35"/>
+      <c r="B153" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C151" s="55"/>
-      <c r="D151" s="40" t="s">
+      <c r="C153" s="51"/>
+      <c r="D153" s="36" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
-      <c r="B152" s="55" t="s">
+    <row r="154" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A154" s="35"/>
+      <c r="B154" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C152" s="55"/>
-      <c r="D152" s="40" t="s">
+      <c r="C154" s="51"/>
+      <c r="D154" s="36" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
-      <c r="B153" s="55" t="s">
+    <row r="155" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A155" s="35"/>
+      <c r="B155" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C153" s="55"/>
-      <c r="D153" s="40" t="s">
+      <c r="C155" s="51"/>
+      <c r="D155" s="36" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
-      <c r="B154" s="55" t="s">
+    <row r="156" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A156" s="35"/>
+      <c r="B156" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C154" s="55"/>
-      <c r="D154" s="40" t="s">
+      <c r="C156" s="51"/>
+      <c r="D156" s="36" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="55" t="s">
+    <row r="157" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A157" s="35"/>
+      <c r="B157" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C155" s="55"/>
-      <c r="D155" s="40" t="s">
+      <c r="C157" s="51"/>
+      <c r="D157" s="36" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
-      <c r="B156" s="55" t="s">
+    <row r="158" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A158" s="35"/>
+      <c r="B158" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C156" s="55"/>
-      <c r="D156" s="40" t="s">
+      <c r="C158" s="51"/>
+      <c r="D158" s="36" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
-      <c r="B157" s="55" t="s">
+    <row r="159" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A159" s="35"/>
+      <c r="B159" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C157" s="55"/>
-      <c r="D157" s="40" t="s">
+      <c r="C159" s="51"/>
+      <c r="D159" s="36" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
-      <c r="B158" s="55" t="s">
+    <row r="160" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A160" s="35"/>
+      <c r="B160" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C158" s="55"/>
-      <c r="D158" s="40" t="s">
+      <c r="C160" s="51"/>
+      <c r="D160" s="36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
-      <c r="B159" s="55" t="s">
+    <row r="161" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A161" s="35"/>
+      <c r="B161" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C159" s="55"/>
-      <c r="D159" s="40" t="s">
+      <c r="C161" s="51"/>
+      <c r="D161" s="36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
-      <c r="B160" s="55" t="s">
+    <row r="162" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A162" s="35"/>
+      <c r="B162" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C160" s="55"/>
-      <c r="D160" s="40" t="s">
+      <c r="C162" s="51"/>
+      <c r="D162" s="36" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
-      <c r="B161" s="55" t="s">
+    <row r="163" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A163" s="35"/>
+      <c r="B163" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C161" s="55"/>
-      <c r="D161" s="40" t="s">
+      <c r="C163" s="51"/>
+      <c r="D163" s="36" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
-      <c r="B162" s="55" t="s">
+    <row r="164" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A164" s="35"/>
+      <c r="B164" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="55"/>
-      <c r="D162" s="40" t="s">
+      <c r="C164" s="51"/>
+      <c r="D164" s="36" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
-      <c r="B163" s="55" t="s">
+    <row r="165" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A165" s="35"/>
+      <c r="B165" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C163" s="55"/>
-      <c r="D163" s="40" t="s">
+      <c r="C165" s="51"/>
+      <c r="D165" s="36" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
-      <c r="B164" s="55" t="s">
+    <row r="166" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A166" s="35"/>
+      <c r="B166" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="C164" s="55"/>
-      <c r="D164" s="40" t="s">
+      <c r="C166" s="51"/>
+      <c r="D166" s="36" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
-      <c r="B165" s="55" t="s">
+    <row r="167" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A167" s="35"/>
+      <c r="B167" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C165" s="55"/>
-      <c r="D165" s="40" t="s">
+      <c r="C167" s="51"/>
+      <c r="D167" s="36" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
-      <c r="B166" s="55" t="s">
+    <row r="168" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A168" s="35"/>
+      <c r="B168" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C166" s="55"/>
-      <c r="D166" s="40" t="s">
+      <c r="C168" s="51"/>
+      <c r="D168" s="36" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A167" s="39"/>
-      <c r="B167" s="55" t="s">
+    <row r="169" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A169" s="35"/>
+      <c r="B169" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C167" s="55"/>
-      <c r="D167" s="40" t="s">
+      <c r="C169" s="51"/>
+      <c r="D169" s="36" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
-      <c r="B168" s="55" t="s">
+    <row r="170" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A170" s="35"/>
+      <c r="B170" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="C168" s="55"/>
-      <c r="D168" s="40" t="s">
+      <c r="C170" s="51"/>
+      <c r="D170" s="36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
-      <c r="B169" s="55" t="s">
+    <row r="171" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A171" s="35"/>
+      <c r="B171" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C169" s="55"/>
-      <c r="D169" s="40" t="s">
+      <c r="C171" s="51"/>
+      <c r="D171" s="36" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
-      <c r="B170" s="55" t="s">
+    <row r="172" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A172" s="35"/>
+      <c r="B172" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="C170" s="55"/>
-      <c r="D170" s="40" t="s">
+      <c r="C172" s="51"/>
+      <c r="D172" s="36" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
-      <c r="B171" s="55" t="s">
+    <row r="173" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A173" s="35"/>
+      <c r="B173" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="C171" s="55"/>
-      <c r="D171" s="40" t="s">
+      <c r="C173" s="51"/>
+      <c r="D173" s="36" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
-      <c r="B172" s="55" t="s">
+    <row r="174" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A174" s="35"/>
+      <c r="B174" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="C172" s="55"/>
-      <c r="D172" s="40" t="s">
+      <c r="C174" s="51"/>
+      <c r="D174" s="36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
-      <c r="B173" s="55" t="s">
+    <row r="175" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A175" s="35"/>
+      <c r="B175" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="C173" s="55"/>
-      <c r="D173" s="40" t="s">
+      <c r="C175" s="51"/>
+      <c r="D175" s="36" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
-      <c r="B174" s="55" t="s">
+    <row r="176" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A176" s="35"/>
+      <c r="B176" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="C174" s="55"/>
-      <c r="D174" s="40" t="s">
+      <c r="C176" s="51"/>
+      <c r="D176" s="36" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
-      <c r="B175" s="55" t="s">
+    <row r="177" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A177" s="35"/>
+      <c r="B177" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C175" s="55"/>
-      <c r="D175" s="40" t="s">
+      <c r="C177" s="51"/>
+      <c r="D177" s="36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
-      <c r="B176" s="55" t="s">
+    <row r="178" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A178" s="35"/>
+      <c r="B178" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="C176" s="55"/>
-      <c r="D176" s="40" t="s">
+      <c r="C178" s="51"/>
+      <c r="D178" s="36" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A177" s="39"/>
-      <c r="B177" s="55" t="s">
+    <row r="179" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A179" s="35"/>
+      <c r="B179" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C177" s="55"/>
-      <c r="D177" s="40" t="s">
+      <c r="C179" s="51"/>
+      <c r="D179" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
-      <c r="B178" s="55" t="s">
+    <row r="180" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A180" s="35"/>
+      <c r="B180" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="C178" s="55"/>
-      <c r="D178" s="40" t="s">
+      <c r="C180" s="51"/>
+      <c r="D180" s="36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
-      <c r="B179" s="55" t="s">
+    <row r="181" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A181" s="35"/>
+      <c r="B181" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="C179" s="55"/>
-      <c r="D179" s="40" t="s">
+      <c r="C181" s="51"/>
+      <c r="D181" s="36" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
-      <c r="B180" s="55" t="s">
+    <row r="182" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A182" s="35"/>
+      <c r="B182" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C180" s="55"/>
-      <c r="D180" s="40" t="s">
+      <c r="C182" s="51"/>
+      <c r="D182" s="36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="55" t="s">
+    <row r="183" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A183" s="35"/>
+      <c r="B183" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C181" s="55"/>
-      <c r="D181" s="40" t="s">
+      <c r="C183" s="51"/>
+      <c r="D183" s="36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A182" s="39"/>
-      <c r="B182" s="55" t="s">
+    <row r="184" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A184" s="35"/>
+      <c r="B184" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="C182" s="55"/>
-      <c r="D182" s="40" t="s">
+      <c r="C184" s="51"/>
+      <c r="D184" s="36" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A183" s="39"/>
-      <c r="B183" s="55" t="s">
+    <row r="185" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A185" s="35"/>
+      <c r="B185" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="C183" s="55"/>
-      <c r="D183" s="40" t="s">
+      <c r="C185" s="51"/>
+      <c r="D185" s="36" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
-      <c r="B184" s="55" t="s">
+    <row r="186" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A186" s="35"/>
+      <c r="B186" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C184" s="55"/>
-      <c r="D184" s="40" t="s">
+      <c r="C186" s="51"/>
+      <c r="D186" s="36" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
-      <c r="B185" s="55" t="s">
+    <row r="187" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A187" s="35"/>
+      <c r="B187" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C185" s="55"/>
-      <c r="D185" s="40" t="s">
+      <c r="C187" s="51"/>
+      <c r="D187" s="36" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
-      <c r="B186" s="55" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="35"/>
+      <c r="B188" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C186" s="55"/>
-      <c r="D186" s="40"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="39"/>
-      <c r="B187" s="55" t="s">
+      <c r="C188" s="51"/>
+      <c r="D188" s="36"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="35"/>
+      <c r="B189" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C187" s="55"/>
-      <c r="D187" s="40"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="55" t="s">
+      <c r="C189" s="51"/>
+      <c r="D189" s="36"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="35"/>
+      <c r="B190" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="C188" s="55"/>
-      <c r="D188" s="40"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
-      <c r="B189" s="55" t="s">
+      <c r="C190" s="51"/>
+      <c r="D190" s="36"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="35"/>
+      <c r="B191" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C189" s="55"/>
-      <c r="D189" s="40"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
-      <c r="B190" s="55" t="s">
+      <c r="C191" s="51"/>
+      <c r="D191" s="36"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="35"/>
+      <c r="B192" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="C190" s="55"/>
-      <c r="D190" s="40"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
-      <c r="B191" s="55" t="s">
+      <c r="C192" s="51"/>
+      <c r="D192" s="36"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="35"/>
+      <c r="B193" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="C191" s="55"/>
-      <c r="D191" s="40"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
-      <c r="B192" s="55" t="s">
+      <c r="C193" s="51"/>
+      <c r="D193" s="36"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="35"/>
+      <c r="B194" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="C192" s="55"/>
-      <c r="D192" s="40"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="39"/>
-      <c r="B193" s="55" t="s">
+      <c r="C194" s="51"/>
+      <c r="D194" s="36"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="35"/>
+      <c r="B195" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="C193" s="55"/>
-      <c r="D193" s="40"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
-      <c r="B194" s="55" t="s">
+      <c r="C195" s="51"/>
+      <c r="D195" s="36"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="35"/>
+      <c r="B196" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="C194" s="55"/>
-      <c r="D194" s="40"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
-      <c r="B195" s="55" t="s">
+      <c r="C196" s="51"/>
+      <c r="D196" s="36"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="35"/>
+      <c r="B197" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C195" s="55"/>
-      <c r="D195" s="40"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
-      <c r="B196" s="55" t="s">
+      <c r="C197" s="51"/>
+      <c r="D197" s="36"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="35"/>
+      <c r="B198" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C196" s="55"/>
-      <c r="D196" s="40"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="39"/>
-      <c r="B197" s="55" t="s">
+      <c r="C198" s="51"/>
+      <c r="D198" s="36"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="35"/>
+      <c r="B199" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C197" s="55"/>
-      <c r="D197" s="40"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="39"/>
-      <c r="B198" s="55" t="s">
+      <c r="C199" s="51"/>
+      <c r="D199" s="36"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="35"/>
+      <c r="B200" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="C198" s="55"/>
-      <c r="D198" s="40"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
-      <c r="B199" s="55" t="s">
+      <c r="C200" s="51"/>
+      <c r="D200" s="36"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="35"/>
+      <c r="B201" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="C199" s="55"/>
-      <c r="D199" s="40"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
-      <c r="B200" s="55" t="s">
+      <c r="C201" s="51"/>
+      <c r="D201" s="36"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="35"/>
+      <c r="B202" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="C200" s="55"/>
-      <c r="D200" s="40"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
-      <c r="B201" s="55" t="s">
+      <c r="C202" s="51"/>
+      <c r="D202" s="36"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="35"/>
+      <c r="B203" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C201" s="55"/>
-      <c r="D201" s="40"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="55" t="s">
+      <c r="C203" s="51"/>
+      <c r="D203" s="36"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="35"/>
+      <c r="B204" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="C202" s="55"/>
-      <c r="D202" s="40"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="39"/>
-      <c r="B203" s="55" t="s">
+      <c r="C204" s="51"/>
+      <c r="D204" s="36"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="35"/>
+      <c r="B205" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="C203" s="55"/>
-      <c r="D203" s="40"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
-      <c r="B204" s="55" t="s">
+      <c r="C205" s="51"/>
+      <c r="D205" s="36"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="35"/>
+      <c r="B206" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="C204" s="55"/>
-      <c r="D204" s="40"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
-      <c r="B205" s="55" t="s">
+      <c r="C206" s="51"/>
+      <c r="D206" s="36"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="35"/>
+      <c r="B207" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="C205" s="55"/>
-      <c r="D205" s="40"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
-      <c r="B206" s="55" t="s">
+      <c r="C207" s="51"/>
+      <c r="D207" s="36"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="35"/>
+      <c r="B208" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="C206" s="55"/>
-      <c r="D206" s="40"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="39"/>
-      <c r="B207" s="55" t="s">
+      <c r="C208" s="51"/>
+      <c r="D208" s="36"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="35"/>
+      <c r="B209" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="C207" s="55"/>
-      <c r="D207" s="40"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
-      <c r="B208" s="55" t="s">
+      <c r="C209" s="51"/>
+      <c r="D209" s="36"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="35"/>
+      <c r="B210" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="C208" s="55"/>
-      <c r="D208" s="40"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
-      <c r="B209" s="55" t="s">
+      <c r="C210" s="51"/>
+      <c r="D210" s="36"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="35"/>
+      <c r="B211" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="C209" s="55"/>
-      <c r="D209" s="40"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
-      <c r="B210" s="55" t="s">
+      <c r="C211" s="51"/>
+      <c r="D211" s="36"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="35"/>
+      <c r="B212" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C210" s="55"/>
-      <c r="D210" s="40"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
-      <c r="B211" s="55" t="s">
+      <c r="C212" s="51"/>
+      <c r="D212" s="36"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="35"/>
+      <c r="B213" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="C211" s="55"/>
-      <c r="D211" s="40"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="39"/>
-      <c r="B212" s="55" t="s">
+      <c r="C213" s="51"/>
+      <c r="D213" s="36"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="35"/>
+      <c r="B214" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="C212" s="55"/>
-      <c r="D212" s="40"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="39"/>
-      <c r="B213" s="55" t="s">
+      <c r="C214" s="51"/>
+      <c r="D214" s="36"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="35"/>
+      <c r="B215" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="C213" s="55"/>
-      <c r="D213" s="40"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
-      <c r="B214" s="55" t="s">
+      <c r="C215" s="51"/>
+      <c r="D215" s="36"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="35"/>
+      <c r="B216" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="C214" s="55"/>
-      <c r="D214" s="40"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
-      <c r="B215" s="55" t="s">
+      <c r="C216" s="51"/>
+      <c r="D216" s="36"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="35"/>
+      <c r="B217" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="C215" s="55"/>
-      <c r="D215" s="40"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
-      <c r="B216" s="55" t="s">
+      <c r="C217" s="51"/>
+      <c r="D217" s="36"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="35"/>
+      <c r="B218" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="C216" s="55"/>
-      <c r="D216" s="40"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="39"/>
-      <c r="B217" s="55" t="s">
+      <c r="C218" s="51"/>
+      <c r="D218" s="36"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="35"/>
+      <c r="B219" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="C217" s="55"/>
-      <c r="D217" s="40"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="39"/>
-      <c r="B218" s="55" t="s">
+      <c r="C219" s="51"/>
+      <c r="D219" s="36"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="35"/>
+      <c r="B220" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="C218" s="55"/>
-      <c r="D218" s="40"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
-      <c r="B219" s="55" t="s">
+      <c r="C220" s="51"/>
+      <c r="D220" s="36"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="35"/>
+      <c r="B221" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="C219" s="55"/>
-      <c r="D219" s="40"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="39"/>
-      <c r="B220" s="55" t="s">
+      <c r="C221" s="51"/>
+      <c r="D221" s="36"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="35"/>
+      <c r="B222" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="C220" s="55"/>
-      <c r="D220" s="40"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="39"/>
-      <c r="B221" s="55" t="s">
+      <c r="C222" s="51"/>
+      <c r="D222" s="36"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="35"/>
+      <c r="B223" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="C221" s="55"/>
-      <c r="D221" s="40"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="39"/>
-      <c r="B222" s="55" t="s">
+      <c r="C223" s="51"/>
+      <c r="D223" s="36"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="35"/>
+      <c r="B224" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="C222" s="55"/>
-      <c r="D222" s="40"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="39"/>
-      <c r="B223" s="55" t="s">
+      <c r="C224" s="51"/>
+      <c r="D224" s="36"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="35"/>
+      <c r="B225" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="C223" s="55"/>
-      <c r="D223" s="40"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
-      <c r="B224" s="55" t="s">
+      <c r="C225" s="51"/>
+      <c r="D225" s="36"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="35"/>
+      <c r="B226" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="C224" s="55"/>
-      <c r="D224" s="40"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
-      <c r="B225" s="55" t="s">
+      <c r="C226" s="51"/>
+      <c r="D226" s="36"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="35"/>
+      <c r="B227" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="C225" s="55"/>
-      <c r="D225" s="40"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
-      <c r="B226" s="55" t="s">
+      <c r="C227" s="51"/>
+      <c r="D227" s="36"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="35"/>
+      <c r="B228" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="C226" s="55"/>
-      <c r="D226" s="40"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="39"/>
-      <c r="B227" s="55" t="s">
+      <c r="C228" s="51"/>
+      <c r="D228" s="36"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="35"/>
+      <c r="B229" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="C227" s="55"/>
-      <c r="D227" s="40"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="39"/>
-      <c r="B228" s="55" t="s">
+      <c r="C229" s="51"/>
+      <c r="D229" s="36"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="35"/>
+      <c r="B230" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="C228" s="55"/>
-      <c r="D228" s="40"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
-      <c r="B229" s="55" t="s">
+      <c r="C230" s="51"/>
+      <c r="D230" s="36"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="35"/>
+      <c r="B231" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="C229" s="55"/>
-      <c r="D229" s="40"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
-      <c r="B230" s="55" t="s">
+      <c r="C231" s="51"/>
+      <c r="D231" s="36"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="35"/>
+      <c r="B232" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="C230" s="55"/>
-      <c r="D230" s="40"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
-      <c r="B231" s="55" t="s">
+      <c r="C232" s="51"/>
+      <c r="D232" s="36"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="35"/>
+      <c r="B233" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="C231" s="55"/>
-      <c r="D231" s="40"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="39"/>
-      <c r="B232" s="55" t="s">
+      <c r="C233" s="51"/>
+      <c r="D233" s="36"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="35"/>
+      <c r="B234" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="C232" s="55"/>
-      <c r="D232" s="40"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="39"/>
-      <c r="B233" s="55" t="s">
+      <c r="C234" s="51"/>
+      <c r="D234" s="36"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="35"/>
+      <c r="B235" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="C233" s="55"/>
-      <c r="D233" s="40"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
-      <c r="B234" s="55" t="s">
+      <c r="C235" s="51"/>
+      <c r="D235" s="36"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="35"/>
+      <c r="B236" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="C234" s="55"/>
-      <c r="D234" s="40"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
-      <c r="B235" s="55" t="s">
+      <c r="C236" s="51"/>
+      <c r="D236" s="36"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="35"/>
+      <c r="B237" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="C235" s="55"/>
-      <c r="D235" s="40"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="39"/>
-      <c r="B236" s="55" t="s">
+      <c r="C237" s="51"/>
+      <c r="D237" s="36"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="35"/>
+      <c r="B238" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="C236" s="55"/>
-      <c r="D236" s="40"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="39"/>
-      <c r="B237" s="55" t="s">
+      <c r="C238" s="51"/>
+      <c r="D238" s="36"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="35"/>
+      <c r="B239" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="C237" s="55"/>
-      <c r="D237" s="40"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="39"/>
-      <c r="B238" s="55" t="s">
+      <c r="C239" s="51"/>
+      <c r="D239" s="36"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="35"/>
+      <c r="B240" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="C238" s="55"/>
-      <c r="D238" s="40"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="39"/>
-      <c r="B239" s="55" t="s">
+      <c r="C240" s="51"/>
+      <c r="D240" s="36"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="35"/>
+      <c r="B241" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="C239" s="55"/>
-      <c r="D239" s="40"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="39"/>
-      <c r="B240" s="55" t="s">
+      <c r="C241" s="51"/>
+      <c r="D241" s="36"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="35"/>
+      <c r="B242" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="C240" s="55"/>
-      <c r="D240" s="40"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="39"/>
-      <c r="B241" s="55" t="s">
+      <c r="C242" s="51"/>
+      <c r="D242" s="36"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="35"/>
+      <c r="B243" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="C241" s="55"/>
-      <c r="D241" s="40"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="39"/>
-      <c r="B242" s="55" t="s">
+      <c r="C243" s="51"/>
+      <c r="D243" s="36"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="35"/>
+      <c r="B244" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="C242" s="55"/>
-      <c r="D242" s="40"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="39"/>
-      <c r="B243" s="55" t="s">
+      <c r="C244" s="51"/>
+      <c r="D244" s="36"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="35"/>
+      <c r="B245" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C243" s="55"/>
-      <c r="D243" s="40"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="39"/>
-      <c r="B244" s="55" t="s">
+      <c r="C245" s="51"/>
+      <c r="D245" s="36"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="35"/>
+      <c r="B246" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="C244" s="55"/>
-      <c r="D244" s="40"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="39"/>
-      <c r="B245" s="55" t="s">
+      <c r="C246" s="51"/>
+      <c r="D246" s="36"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="35"/>
+      <c r="B247" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="C245" s="55"/>
-      <c r="D245" s="40"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="39"/>
-      <c r="B246" s="55" t="s">
+      <c r="C247" s="51"/>
+      <c r="D247" s="36"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="35"/>
+      <c r="B248" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="C246" s="55"/>
-      <c r="D246" s="40"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="39"/>
-      <c r="B247" s="55" t="s">
+      <c r="C248" s="51"/>
+      <c r="D248" s="36"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="35"/>
+      <c r="B249" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="C247" s="55"/>
-      <c r="D247" s="40"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="39"/>
-      <c r="B248" s="55" t="s">
+      <c r="C249" s="51"/>
+      <c r="D249" s="36"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="35"/>
+      <c r="B250" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="C248" s="55"/>
-      <c r="D248" s="40"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="39"/>
-      <c r="B249" s="55" t="s">
+      <c r="C250" s="51"/>
+      <c r="D250" s="36"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="35"/>
+      <c r="B251" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="C249" s="55"/>
-      <c r="D249" s="40"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
-      <c r="B250" s="55" t="s">
+      <c r="C251" s="51"/>
+      <c r="D251" s="36"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="35"/>
+      <c r="B252" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="C250" s="55"/>
-      <c r="D250" s="40"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="39"/>
-      <c r="B251" s="55" t="s">
+      <c r="C252" s="51"/>
+      <c r="D252" s="36"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="35"/>
+      <c r="B253" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="C251" s="55"/>
-      <c r="D251" s="40"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="39"/>
-      <c r="B252" s="55" t="s">
+      <c r="C253" s="51"/>
+      <c r="D253" s="36"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="35"/>
+      <c r="B254" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="C252" s="55"/>
-      <c r="D252" s="40"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="39"/>
-      <c r="B253" s="55" t="s">
+      <c r="C254" s="51"/>
+      <c r="D254" s="36"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="35"/>
+      <c r="B255" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C253" s="55"/>
-      <c r="D253" s="40"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="39"/>
-      <c r="B254" s="55" t="s">
+      <c r="C255" s="51"/>
+      <c r="D255" s="36"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="35"/>
+      <c r="B256" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="C254" s="55"/>
-      <c r="D254" s="40"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="39"/>
-      <c r="B255" s="55" t="s">
+      <c r="C256" s="51"/>
+      <c r="D256" s="36"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="35"/>
+      <c r="B257" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="C255" s="55"/>
-      <c r="D255" s="40"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="39"/>
-      <c r="B256" s="55" t="s">
+      <c r="C257" s="51"/>
+      <c r="D257" s="36"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="35"/>
+      <c r="B258" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="C256" s="55"/>
-      <c r="D256" s="40"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="39"/>
-      <c r="B257" s="55" t="s">
+      <c r="C258" s="51"/>
+      <c r="D258" s="36"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="35"/>
+      <c r="B259" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C257" s="55"/>
-      <c r="D257" s="40"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="39"/>
-      <c r="B258" s="55" t="s">
+      <c r="C259" s="51"/>
+      <c r="D259" s="36"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="35"/>
+      <c r="B260" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="C258" s="55"/>
-      <c r="D258" s="40"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="39"/>
-      <c r="B259" s="55" t="s">
+      <c r="C260" s="51"/>
+      <c r="D260" s="36"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="35"/>
+      <c r="B261" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="C259" s="55"/>
-      <c r="D259" s="40"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="39"/>
-      <c r="B260" s="55" t="s">
+      <c r="C261" s="51"/>
+      <c r="D261" s="36"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="35"/>
+      <c r="B262" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="C260" s="55"/>
-      <c r="D260" s="40"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
-      <c r="B261" s="55" t="s">
+      <c r="C262" s="51"/>
+      <c r="D262" s="36"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="35"/>
+      <c r="B263" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="C261" s="55"/>
-      <c r="D261" s="40"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="39"/>
-      <c r="B262" s="55" t="s">
+      <c r="C263" s="51"/>
+      <c r="D263" s="36"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="35"/>
+      <c r="B264" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="C262" s="55"/>
-      <c r="D262" s="40"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="39"/>
-      <c r="B263" s="55" t="s">
+      <c r="C264" s="51"/>
+      <c r="D264" s="36"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="35"/>
+      <c r="B265" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C263" s="55"/>
-      <c r="D263" s="40"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
-      <c r="B264" s="55" t="s">
+      <c r="C265" s="51"/>
+      <c r="D265" s="36"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="35"/>
+      <c r="B266" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="C264" s="55"/>
-      <c r="D264" s="40"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="39"/>
-      <c r="B265" s="55" t="s">
+      <c r="C266" s="51"/>
+      <c r="D266" s="36"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="35"/>
+      <c r="B267" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="C265" s="55"/>
-      <c r="D265" s="40"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="39"/>
-      <c r="B266" s="55" t="s">
+      <c r="C267" s="51"/>
+      <c r="D267" s="36"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="35"/>
+      <c r="B268" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="C266" s="55"/>
-      <c r="D266" s="40"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="39"/>
-      <c r="B267" s="55" t="s">
+      <c r="C268" s="51"/>
+      <c r="D268" s="36"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="35"/>
+      <c r="B269" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="C267" s="55"/>
-      <c r="D267" s="40"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="39"/>
-      <c r="B268" s="55" t="s">
+      <c r="C269" s="51"/>
+      <c r="D269" s="36"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="35"/>
+      <c r="B270" s="51" t="s">
         <v>405</v>
       </c>
-      <c r="C268" s="55"/>
-      <c r="D268" s="40"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="39"/>
-      <c r="B269" s="55" t="s">
+      <c r="C270" s="51"/>
+      <c r="D270" s="36"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="35"/>
+      <c r="B271" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="C269" s="55"/>
-      <c r="D269" s="40"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="39"/>
-      <c r="B270" s="55" t="s">
+      <c r="C271" s="51"/>
+      <c r="D271" s="36"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="35"/>
+      <c r="B272" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="C270" s="55"/>
-      <c r="D270" s="40"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="39"/>
-      <c r="B271" s="55" t="s">
+      <c r="C272" s="51"/>
+      <c r="D272" s="36"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="35"/>
+      <c r="B273" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="C271" s="55"/>
-      <c r="D271" s="40"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="39"/>
-      <c r="B272" s="55" t="s">
+      <c r="C273" s="51"/>
+      <c r="D273" s="36"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="35"/>
+      <c r="B274" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="C272" s="55"/>
-      <c r="D272" s="40"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="39"/>
-      <c r="B273" s="55" t="s">
+      <c r="C274" s="51"/>
+      <c r="D274" s="36"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="35"/>
+      <c r="B275" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="C273" s="55"/>
-      <c r="D273" s="40"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="39"/>
-      <c r="B274" s="55" t="s">
+      <c r="C275" s="51"/>
+      <c r="D275" s="36"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="35"/>
+      <c r="B276" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="C274" s="55"/>
-      <c r="D274" s="40"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="39"/>
-      <c r="B275" s="55" t="s">
+      <c r="C276" s="51"/>
+      <c r="D276" s="36"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="35"/>
+      <c r="B277" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="C275" s="55"/>
-      <c r="D275" s="40"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="39"/>
-      <c r="B276" s="55" t="s">
+      <c r="C277" s="51"/>
+      <c r="D277" s="36"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="35"/>
+      <c r="B278" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="C276" s="55"/>
-      <c r="D276" s="40"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="39"/>
-      <c r="B277" s="55" t="s">
+      <c r="C278" s="51"/>
+      <c r="D278" s="36"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="35"/>
+      <c r="B279" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="C277" s="55"/>
-      <c r="D277" s="40"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="39"/>
-      <c r="B278" s="55" t="s">
+      <c r="C279" s="51"/>
+      <c r="D279" s="36"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="35"/>
+      <c r="B280" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="C278" s="55"/>
-      <c r="D278" s="40"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="39"/>
-      <c r="B279" s="55" t="s">
+      <c r="C280" s="51"/>
+      <c r="D280" s="36"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="35"/>
+      <c r="B281" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="C279" s="55"/>
-      <c r="D279" s="40"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="39"/>
-      <c r="B280" s="55" t="s">
+      <c r="C281" s="51"/>
+      <c r="D281" s="36"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="35"/>
+      <c r="B282" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="C280" s="55"/>
-      <c r="D280" s="40"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="39"/>
-      <c r="B281" s="55" t="s">
+      <c r="C282" s="51"/>
+      <c r="D282" s="36"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="35"/>
+      <c r="B283" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="C281" s="55"/>
-      <c r="D281" s="40"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="39"/>
-      <c r="B282" s="55" t="s">
+      <c r="C283" s="51"/>
+      <c r="D283" s="36"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="35"/>
+      <c r="B284" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="C282" s="55"/>
-      <c r="D282" s="40"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="39"/>
-      <c r="B283" s="55" t="s">
+      <c r="C284" s="51"/>
+      <c r="D284" s="36"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="35"/>
+      <c r="B285" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="C283" s="55"/>
-      <c r="D283" s="40"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="39"/>
-      <c r="B284" s="55" t="s">
+      <c r="C285" s="51"/>
+      <c r="D285" s="36"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="35"/>
+      <c r="B286" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="C284" s="55"/>
-      <c r="D284" s="40"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="39"/>
-      <c r="B285" s="55" t="s">
+      <c r="C286" s="51"/>
+      <c r="D286" s="36"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="35"/>
+      <c r="B287" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="55"/>
-      <c r="D285" s="40"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="39"/>
-      <c r="B286" s="55" t="s">
+      <c r="C287" s="51"/>
+      <c r="D287" s="36"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="35"/>
+      <c r="B288" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="C286" s="55"/>
-      <c r="D286" s="40"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="39"/>
-      <c r="B287" s="55" t="s">
+      <c r="C288" s="51"/>
+      <c r="D288" s="36"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="35"/>
+      <c r="B289" s="51" t="s">
         <v>423</v>
       </c>
-      <c r="C287" s="55"/>
-      <c r="D287" s="40"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="39"/>
-      <c r="B288" s="55" t="s">
+      <c r="C289" s="51"/>
+      <c r="D289" s="36"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="35"/>
+      <c r="B290" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="C288" s="55"/>
-      <c r="D288" s="40"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="39"/>
-      <c r="B289" s="55" t="s">
+      <c r="C290" s="51"/>
+      <c r="D290" s="36"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="35"/>
+      <c r="B291" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="C289" s="55"/>
-      <c r="D289" s="40"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="39"/>
-      <c r="B290" s="55" t="s">
+      <c r="C291" s="51"/>
+      <c r="D291" s="36"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="35"/>
+      <c r="B292" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="C290" s="55"/>
-      <c r="D290" s="40"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="39"/>
-      <c r="B291" s="55" t="s">
+      <c r="C292" s="51"/>
+      <c r="D292" s="36"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="35"/>
+      <c r="B293" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="C291" s="55"/>
-      <c r="D291" s="40"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="39"/>
-      <c r="B292" s="55" t="s">
+      <c r="C293" s="51"/>
+      <c r="D293" s="36"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="35"/>
+      <c r="B294" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="C292" s="55"/>
-      <c r="D292" s="40"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="39"/>
-      <c r="B293" s="55" t="s">
+      <c r="C294" s="51"/>
+      <c r="D294" s="36"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="35"/>
+      <c r="B295" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="C293" s="55"/>
-      <c r="D293" s="40"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="39"/>
-      <c r="B294" s="55" t="s">
+      <c r="C295" s="51"/>
+      <c r="D295" s="36"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="35"/>
+      <c r="B296" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="C294" s="55"/>
-      <c r="D294" s="40"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="39"/>
-      <c r="B295" s="55" t="s">
+      <c r="C296" s="51"/>
+      <c r="D296" s="36"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="35"/>
+      <c r="B297" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="C295" s="55"/>
-      <c r="D295" s="40"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="39"/>
-      <c r="B296" s="55" t="s">
+      <c r="C297" s="51"/>
+      <c r="D297" s="36"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="35"/>
+      <c r="B298" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="C296" s="55"/>
-      <c r="D296" s="40"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="39"/>
-      <c r="B297" s="55" t="s">
+      <c r="C298" s="51"/>
+      <c r="D298" s="36"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="35"/>
+      <c r="B299" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="C297" s="55"/>
-      <c r="D297" s="40"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="39"/>
-      <c r="B298" s="55" t="s">
+      <c r="C299" s="51"/>
+      <c r="D299" s="36"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="35"/>
+      <c r="B300" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C298" s="55"/>
-      <c r="D298" s="40"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="39"/>
-      <c r="B299" s="55" t="s">
+      <c r="C300" s="51"/>
+      <c r="D300" s="36"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="35"/>
+      <c r="B301" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="C299" s="55"/>
-      <c r="D299" s="40"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="39"/>
-      <c r="B300" s="55" t="s">
+      <c r="C301" s="51"/>
+      <c r="D301" s="36"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="35"/>
+      <c r="B302" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="C300" s="55"/>
-      <c r="D300" s="40"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="39"/>
-      <c r="B301" s="55" t="s">
+      <c r="C302" s="51"/>
+      <c r="D302" s="36"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="35"/>
+      <c r="B303" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="C301" s="55"/>
-      <c r="D301" s="40"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="39"/>
-      <c r="B302" s="55" t="s">
+      <c r="C303" s="51"/>
+      <c r="D303" s="36"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="35"/>
+      <c r="B304" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="C302" s="55"/>
-      <c r="D302" s="40"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="39"/>
-      <c r="B303" s="55" t="s">
+      <c r="C304" s="51"/>
+      <c r="D304" s="36"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="35"/>
+      <c r="B305" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="C303" s="55"/>
-      <c r="D303" s="40"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="39"/>
-      <c r="B304" s="55" t="s">
+      <c r="C305" s="51"/>
+      <c r="D305" s="36"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="35"/>
+      <c r="B306" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="C304" s="55"/>
-      <c r="D304" s="40"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="39"/>
-      <c r="B305" s="55" t="s">
+      <c r="C306" s="51"/>
+      <c r="D306" s="36"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="35"/>
+      <c r="B307" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="C305" s="55"/>
-      <c r="D305" s="40"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="39"/>
-      <c r="B306" s="55" t="s">
+      <c r="C307" s="51"/>
+      <c r="D307" s="36"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="35"/>
+      <c r="B308" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="C306" s="55"/>
-      <c r="D306" s="40"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="39"/>
-      <c r="B307" s="55" t="s">
+      <c r="C308" s="51"/>
+      <c r="D308" s="36"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="35"/>
+      <c r="B309" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="C307" s="55"/>
-      <c r="D307" s="40"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="39"/>
-      <c r="B308" s="55" t="s">
+      <c r="C309" s="51"/>
+      <c r="D309" s="36"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="35"/>
+      <c r="B310" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="C308" s="55"/>
-      <c r="D308" s="40"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="39"/>
-      <c r="B309" s="55" t="s">
+      <c r="C310" s="51"/>
+      <c r="D310" s="36"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="35"/>
+      <c r="B311" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="C309" s="55"/>
-      <c r="D309" s="40"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="39"/>
-      <c r="B310" s="55" t="s">
+      <c r="C311" s="51"/>
+      <c r="D311" s="36"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="35"/>
+      <c r="B312" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C310" s="55"/>
-      <c r="D310" s="40"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="39"/>
-      <c r="B311" s="55" t="s">
+      <c r="C312" s="51"/>
+      <c r="D312" s="36"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="35"/>
+      <c r="B313" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="C311" s="55"/>
-      <c r="D311" s="40"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="39"/>
-      <c r="B312" s="55" t="s">
+      <c r="C313" s="51"/>
+      <c r="D313" s="36"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="35"/>
+      <c r="B314" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="C312" s="55"/>
-      <c r="D312" s="40"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="39"/>
-      <c r="B313" s="55" t="s">
+      <c r="C314" s="51"/>
+      <c r="D314" s="36"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="35"/>
+      <c r="B315" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="C313" s="55"/>
-      <c r="D313" s="40"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="39"/>
-      <c r="B314" s="55" t="s">
+      <c r="C315" s="51"/>
+      <c r="D315" s="36"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="35"/>
+      <c r="B316" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="C314" s="55"/>
-      <c r="D314" s="40"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="39"/>
-      <c r="B315" s="55" t="s">
+      <c r="C316" s="51"/>
+      <c r="D316" s="36"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="35"/>
+      <c r="B317" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="C315" s="55"/>
-      <c r="D315" s="40"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="39"/>
-      <c r="B316" s="55" t="s">
+      <c r="C317" s="51"/>
+      <c r="D317" s="36"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="35"/>
+      <c r="B318" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="C316" s="55"/>
-      <c r="D316" s="40"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="39"/>
-      <c r="B317" s="55" t="s">
+      <c r="C318" s="51"/>
+      <c r="D318" s="36"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="35"/>
+      <c r="B319" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="C317" s="55"/>
-      <c r="D317" s="40"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="39"/>
-      <c r="B318" s="55" t="s">
+      <c r="C319" s="51"/>
+      <c r="D319" s="36"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="35"/>
+      <c r="B320" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="C318" s="55"/>
-      <c r="D318" s="40"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="39"/>
-      <c r="B319" s="55" t="s">
+      <c r="C320" s="51"/>
+      <c r="D320" s="36"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="35"/>
+      <c r="B321" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="C319" s="55"/>
-      <c r="D319" s="40"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="39"/>
-      <c r="B320" s="55" t="s">
+      <c r="C321" s="51"/>
+      <c r="D321" s="36"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="35"/>
+      <c r="B322" s="51" t="s">
         <v>454</v>
       </c>
-      <c r="C320" s="55"/>
-      <c r="D320" s="40"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="39"/>
-      <c r="B321" s="55" t="s">
+      <c r="C322" s="51"/>
+      <c r="D322" s="36"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="35"/>
+      <c r="B323" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="C321" s="55"/>
-      <c r="D321" s="40"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="39"/>
-      <c r="B322" s="55" t="s">
+      <c r="C323" s="51"/>
+      <c r="D323" s="36"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="35"/>
+      <c r="B324" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="C322" s="55"/>
-      <c r="D322" s="40"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="39"/>
-      <c r="B323" s="55" t="s">
+      <c r="C324" s="51"/>
+      <c r="D324" s="36"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="35"/>
+      <c r="B325" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C323" s="55"/>
-      <c r="D323" s="40"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="39"/>
-      <c r="B324" s="55" t="s">
+      <c r="C325" s="51"/>
+      <c r="D325" s="36"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="35"/>
+      <c r="B326" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="C324" s="55"/>
-      <c r="D324" s="40"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="39"/>
-      <c r="B325" s="55" t="s">
+      <c r="C326" s="51"/>
+      <c r="D326" s="36"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="35"/>
+      <c r="B327" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="C325" s="55"/>
-      <c r="D325" s="40"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="39"/>
-      <c r="B326" s="55" t="s">
+      <c r="C327" s="51"/>
+      <c r="D327" s="36"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="35"/>
+      <c r="B328" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="C326" s="55"/>
-      <c r="D326" s="40"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="39"/>
-      <c r="B327" s="55" t="s">
+      <c r="C328" s="51"/>
+      <c r="D328" s="36"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="35"/>
+      <c r="B329" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="C327" s="55"/>
-      <c r="D327" s="40"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="39"/>
-      <c r="B328" s="55" t="s">
+      <c r="C329" s="51"/>
+      <c r="D329" s="36"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="35"/>
+      <c r="B330" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="C328" s="55"/>
-      <c r="D328" s="40"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="39"/>
-      <c r="B329" s="55" t="s">
+      <c r="C330" s="51"/>
+      <c r="D330" s="36"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="35"/>
+      <c r="B331" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="C329" s="55"/>
-      <c r="D329" s="40"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="39"/>
-      <c r="B330" s="55" t="s">
+      <c r="C331" s="51"/>
+      <c r="D331" s="36"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="35"/>
+      <c r="B332" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C330" s="55"/>
-      <c r="D330" s="40"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="39"/>
-      <c r="B331" s="55" t="s">
+      <c r="C332" s="51"/>
+      <c r="D332" s="36"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="35"/>
+      <c r="B333" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="C331" s="55"/>
-      <c r="D331" s="40"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="39"/>
-      <c r="B332" s="55" t="s">
+      <c r="C333" s="51"/>
+      <c r="D333" s="36"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="35"/>
+      <c r="B334" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="C332" s="55"/>
-      <c r="D332" s="40"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="39"/>
-      <c r="B333" s="55" t="s">
+      <c r="C334" s="51"/>
+      <c r="D334" s="36"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="35"/>
+      <c r="B335" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="C333" s="55"/>
-      <c r="D333" s="40"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="39"/>
-      <c r="B334" s="55" t="s">
+      <c r="C335" s="51"/>
+      <c r="D335" s="36"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="35"/>
+      <c r="B336" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="C334" s="55"/>
-      <c r="D334" s="40"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="39"/>
-      <c r="B335" s="55" t="s">
+      <c r="C336" s="51"/>
+      <c r="D336" s="36"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="35"/>
+      <c r="B337" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="C335" s="55"/>
-      <c r="D335" s="40"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="39"/>
-      <c r="B336" s="55" t="s">
+      <c r="C337" s="51"/>
+      <c r="D337" s="36"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="35"/>
+      <c r="B338" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="C336" s="55"/>
-      <c r="D336" s="40"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="39"/>
-      <c r="B337" s="55" t="s">
+      <c r="C338" s="51"/>
+      <c r="D338" s="36"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="35"/>
+      <c r="B339" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="C337" s="55"/>
-      <c r="D337" s="40"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="39"/>
-      <c r="B338" s="55" t="s">
+      <c r="C339" s="51"/>
+      <c r="D339" s="36"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="35"/>
+      <c r="B340" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="C338" s="55"/>
-      <c r="D338" s="40"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="39"/>
-      <c r="B339" s="55" t="s">
+      <c r="C340" s="51"/>
+      <c r="D340" s="36"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="35"/>
+      <c r="B341" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="C339" s="55"/>
-      <c r="D339" s="40"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="39"/>
-      <c r="B340" s="55" t="s">
+      <c r="C341" s="51"/>
+      <c r="D341" s="36"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="35"/>
+      <c r="B342" s="51" t="s">
         <v>473</v>
       </c>
-      <c r="C340" s="55"/>
-      <c r="D340" s="40"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="39"/>
-      <c r="B341" s="55" t="s">
+      <c r="C342" s="51"/>
+      <c r="D342" s="36"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="35"/>
+      <c r="B343" s="51" t="s">
         <v>474</v>
       </c>
-      <c r="C341" s="55"/>
-      <c r="D341" s="40"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="39"/>
-      <c r="B342" s="55" t="s">
+      <c r="C343" s="51"/>
+      <c r="D343" s="36"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="35"/>
+      <c r="B344" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="C342" s="55"/>
-      <c r="D342" s="40"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="39"/>
-      <c r="B343" s="55" t="s">
+      <c r="C344" s="51"/>
+      <c r="D344" s="36"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="35"/>
+      <c r="B345" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="C343" s="55"/>
-      <c r="D343" s="40"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="39"/>
-      <c r="B344" s="55" t="s">
+      <c r="C345" s="51"/>
+      <c r="D345" s="36"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="35"/>
+      <c r="B346" s="51" t="s">
         <v>477</v>
       </c>
-      <c r="C344" s="55"/>
-      <c r="D344" s="40"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="39"/>
-      <c r="B345" s="55" t="s">
+      <c r="C346" s="51"/>
+      <c r="D346" s="36"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="35"/>
+      <c r="B347" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="C345" s="55"/>
-      <c r="D345" s="40"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="39"/>
-      <c r="B346" s="55" t="s">
+      <c r="C347" s="51"/>
+      <c r="D347" s="36"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="35"/>
+      <c r="B348" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C346" s="55"/>
-      <c r="D346" s="40"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="39"/>
-      <c r="B347" s="55" t="s">
+      <c r="C348" s="51"/>
+      <c r="D348" s="36"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="35"/>
+      <c r="B349" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="C347" s="55"/>
-      <c r="D347" s="40"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="39"/>
-      <c r="B348" s="55" t="s">
+      <c r="C349" s="51"/>
+      <c r="D349" s="36"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="35"/>
+      <c r="B350" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="C348" s="55"/>
-      <c r="D348" s="40"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="39"/>
-      <c r="B349" s="55" t="s">
+      <c r="C350" s="51"/>
+      <c r="D350" s="36"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="35"/>
+      <c r="B351" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="C349" s="55"/>
-      <c r="D349" s="40"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="39"/>
-      <c r="B350" s="55" t="s">
+      <c r="C351" s="51"/>
+      <c r="D351" s="36"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="35"/>
+      <c r="B352" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C350" s="55"/>
-      <c r="D350" s="40"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="39"/>
-      <c r="B351" s="55" t="s">
+      <c r="C352" s="51"/>
+      <c r="D352" s="36"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="35"/>
+      <c r="B353" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C351" s="55"/>
-      <c r="D351" s="40"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="39"/>
-      <c r="B352" s="55" t="s">
+      <c r="C353" s="51"/>
+      <c r="D353" s="36"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="35"/>
+      <c r="B354" s="51" t="s">
         <v>483</v>
       </c>
-      <c r="C352" s="55"/>
-      <c r="D352" s="40"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="68" t="s">
+      <c r="C354" s="51"/>
+      <c r="D354" s="36"/>
+    </row>
+    <row r="355" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A355" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B353" s="69" t="s">
+      <c r="B355" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C353" s="70"/>
-      <c r="D353" s="71"/>
-      <c r="E353" s="72"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="71"/>
-      <c r="B354" s="69" t="s">
+      <c r="C355" s="66"/>
+      <c r="D355" s="67"/>
+      <c r="E355" s="68"/>
+    </row>
+    <row r="356" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A356" s="67"/>
+      <c r="B356" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="C354" s="70"/>
-      <c r="D354" s="71"/>
-      <c r="E354" s="72"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="71"/>
-      <c r="B355" s="69" t="s">
+      <c r="C356" s="66"/>
+      <c r="D356" s="67"/>
+      <c r="E356" s="68"/>
+    </row>
+    <row r="357" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A357" s="67"/>
+      <c r="B357" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C355" s="70"/>
-      <c r="D355" s="71"/>
-      <c r="E355" s="72"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="50" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B357" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="C357" s="73"/>
-    </row>
-    <row r="358" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B358" s="56" t="s">
+      <c r="C357" s="66"/>
+      <c r="D357" s="67"/>
+      <c r="E357" s="68"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="46" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B359" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="C359" s="69"/>
+    </row>
+    <row r="360" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B360" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C358" s="73"/>
-    </row>
-    <row r="359" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B359" s="56" t="s">
+      <c r="C360" s="69"/>
+    </row>
+    <row r="361" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B361" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C359" s="73"/>
-    </row>
-    <row r="360" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B360" s="56" t="s">
+      <c r="C361" s="69"/>
+    </row>
+    <row r="362" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B362" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C360" s="73"/>
-    </row>
-    <row r="361" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B361" s="56" t="s">
+      <c r="C362" s="69"/>
+    </row>
+    <row r="363" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B363" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C361" s="73"/>
-    </row>
-    <row r="362" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B362" s="56" t="s">
+      <c r="C363" s="69"/>
+    </row>
+    <row r="364" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B364" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C362" s="73"/>
-    </row>
-    <row r="363" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B363" s="56" t="s">
+      <c r="C364" s="69"/>
+    </row>
+    <row r="365" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B365" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C363" s="73"/>
-    </row>
-    <row r="364" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B364" s="56" t="s">
+      <c r="C365" s="69"/>
+    </row>
+    <row r="366" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B366" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C364" s="73"/>
-    </row>
-    <row r="365" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B365" s="57" t="s">
+      <c r="C366" s="69"/>
+    </row>
+    <row r="367" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B367" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C365" s="74"/>
-    </row>
-    <row r="366" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B366" s="57" t="s">
+      <c r="C367" s="70"/>
+    </row>
+    <row r="368" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B368" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C366" s="74"/>
-    </row>
-    <row r="367" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B367" s="57" t="s">
+      <c r="C368" s="70"/>
+    </row>
+    <row r="369" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B369" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C367" s="74"/>
-    </row>
-    <row r="368" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B368" s="57" t="s">
+      <c r="C369" s="70"/>
+    </row>
+    <row r="370" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B370" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="C368" s="74"/>
-    </row>
-    <row r="369" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B369" s="57" t="s">
+      <c r="C370" s="70"/>
+    </row>
+    <row r="371" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B371" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C369" s="74"/>
-    </row>
-    <row r="370" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B370" s="57" t="s">
+      <c r="C371" s="70"/>
+    </row>
+    <row r="372" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B372" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="C370" s="74"/>
-    </row>
-    <row r="371" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B371" s="57" t="s">
+      <c r="C372" s="70"/>
+    </row>
+    <row r="373" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B373" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="C371" s="74"/>
-    </row>
-    <row r="372" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B372" s="57" t="s">
+      <c r="C373" s="70"/>
+    </row>
+    <row r="374" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B374" s="53" t="s">
         <v>487</v>
       </c>
-      <c r="C372" s="74"/>
-    </row>
-    <row r="373" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B373" s="57" t="s">
+      <c r="C374" s="70"/>
+    </row>
+    <row r="375" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B375" s="53" t="s">
         <v>488</v>
       </c>
-      <c r="C373" s="74"/>
-    </row>
-    <row r="374" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B374" s="57" t="s">
+      <c r="C375" s="70"/>
+    </row>
+    <row r="376" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B376" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="C374" s="74"/>
-    </row>
-    <row r="375" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B375" s="57" t="s">
+      <c r="C376" s="70"/>
+    </row>
+    <row r="377" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B377" s="53" t="s">
         <v>490</v>
       </c>
-      <c r="C375" s="74"/>
-    </row>
-    <row r="376" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B376" s="57" t="s">
+      <c r="C377" s="70"/>
+    </row>
+    <row r="378" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B378" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="C376" s="74"/>
-    </row>
-    <row r="377" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B377" s="57" t="s">
+      <c r="C378" s="70"/>
+    </row>
+    <row r="379" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B379" s="53" t="s">
         <v>492</v>
       </c>
-      <c r="C377" s="74"/>
-    </row>
-    <row r="378" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B378" s="57" t="s">
+      <c r="C379" s="70"/>
+    </row>
+    <row r="380" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B380" s="53" t="s">
         <v>493</v>
       </c>
-      <c r="C378" s="74"/>
-    </row>
-    <row r="379" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B379" s="57" t="s">
+      <c r="C380" s="70"/>
+    </row>
+    <row r="381" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B381" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="C379" s="74"/>
-    </row>
-    <row r="380" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B380" s="57" t="s">
+      <c r="C381" s="70"/>
+    </row>
+    <row r="382" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B382" s="53" t="s">
         <v>495</v>
       </c>
-      <c r="C380" s="74"/>
-    </row>
-    <row r="381" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B381" s="57" t="s">
+      <c r="C382" s="70"/>
+    </row>
+    <row r="383" spans="2:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="B383" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="C381" s="74"/>
+      <c r="C383" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E40" xr:uid="{C03666AF-2DEA-474C-A9A5-50B09077E2FB}"/>
+  <autoFilter ref="A1:E42" xr:uid="{C03666AF-2DEA-474C-A9A5-50B09077E2FB}"/>
   <mergeCells count="1">
     <mergeCell ref="D37:D38"/>
   </mergeCells>
@@ -7009,66 +7158,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0B1EA-B5D2-4F2C-8109-5D8B719D8F3C}">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="41.21875" collapsed="false"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.21875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="9.88671875" collapsed="false"/>
-    <col min="6" max="10" bestFit="true" customWidth="true" width="22.77734375" collapsed="false"/>
-    <col min="11" max="15" bestFit="true" customWidth="true" width="19.21875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="17.21875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="5.21875" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.44140625" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.44140625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="20.21875" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.21875" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="22.88671875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="19.6640625" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.33203125" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="53.6640625" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="53.21875" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="29.88671875" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="21.21875" collapsed="false"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="29.88671875" collapsed="false"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="22.88671875" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="24.88671875" collapsed="false"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="24.88671875" collapsed="false"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="20.21875" collapsed="false"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="22.21875" collapsed="false"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.109375" collapsed="false"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.1796875" customWidth="1"/>
+    <col min="7" max="11" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="15.453125" customWidth="1"/>
+    <col min="33" max="33" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="27" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>63</v>
       </c>
@@ -7081,286 +7231,253 @@
       <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>640</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>641</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y1" s="56" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA1" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB1" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC1" s="80" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD1" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE1" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="AF1" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="BF1" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="88" t="s">
-        <v>649</v>
-      </c>
-      <c r="J1" s="88" t="s">
-        <v>650</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>541</v>
-      </c>
-      <c r="L1" s="60" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="N1" s="60" t="s">
-        <v>549</v>
-      </c>
-      <c r="O1" s="60" t="s">
-        <v>555</v>
-      </c>
-      <c r="P1" s="60" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>552</v>
-      </c>
-      <c r="R1" s="60" t="s">
-        <v>558</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="60" t="s">
-        <v>562</v>
-      </c>
-      <c r="X1" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y1" s="60" t="s">
-        <v>629</v>
-      </c>
-      <c r="Z1" s="49" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA1" s="49" t="s">
-        <v>570</v>
-      </c>
-      <c r="AB1" s="84" t="s">
-        <v>646</v>
-      </c>
-      <c r="AC1" s="84" t="s">
-        <v>647</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="AV1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="BK1" s="77" t="s">
         <v>625</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="BL1" s="77" t="s">
         <v>626</v>
       </c>
-      <c r="AX1" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="BH1" s="81" t="s">
-        <v>634</v>
-      </c>
-      <c r="BI1" s="81" t="s">
+      <c r="BM1" s="79" t="s">
         <v>635</v>
       </c>
-      <c r="BJ1" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="BK1" s="83" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="21" t="s">
-        <v>668</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
+      <c r="BN1" s="79" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>9310</v>
+      </c>
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"myWizard"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>DataValidation!$E$1:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>S2:S1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$F$1:$F$6</xm:f>
+            <xm:f>DataValidation!$J$1:$J$6</xm:f>
           </x14:formula1>
           <xm:sqref>T2:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$G$1:$G$6</xm:f>
+            <xm:f>DataValidation!$E$1:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>U2:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$H$1:$H$25</xm:f>
+            <xm:f>DataValidation!$H$1:$H$6</xm:f>
           </x14:formula1>
           <xm:sqref>V2:V1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$I$1:$I$2</xm:f>
+            <xm:f>DataValidation!$G$1:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z1048576</xm:sqref>
+          <xm:sqref>W2:W1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$J$1:$J$2</xm:f>
+            <xm:f>DataValidation!$F$1:$F$2</xm:f>
           </x14:formula1>
           <xm:sqref>AA2:AA1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000006000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$I$1:$I$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB2:AB1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000007000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$K$1:$K$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE2:AE1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7370,202 +7487,241 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A47B-3D05-4DCE-8942-1D84BA0710E7}">
-  <dimension ref="E1:J25"/>
+  <dimension ref="E1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
-        <v>654</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>662</v>
       </c>
       <c r="G1" t="s">
-        <v>655</v>
+        <v>557</v>
       </c>
       <c r="H1" t="s">
-        <v>564</v>
+        <v>663</v>
       </c>
       <c r="I1" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="J1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
-        <v>657</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>665</v>
       </c>
       <c r="G2" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>667</v>
       </c>
       <c r="I2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="J2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="K2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>660</v>
-      </c>
-      <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>661</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
+        <v>670</v>
+      </c>
+      <c r="J3" t="s">
+        <v>671</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>662</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>663</v>
-      </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+      <c r="J4" t="s">
+        <v>673</v>
+      </c>
+      <c r="K4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>664</v>
-      </c>
-      <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>665</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+      <c r="J5" t="s">
+        <v>676</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
+      <c r="K6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
+      <c r="K7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
+      <c r="K8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
+      <c r="K9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
+      <c r="K10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
+      <c r="K11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
+      <c r="K12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H16" t="s">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" t="s">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" t="s">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" t="s">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" t="s">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25" t="s">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7576,18 +7732,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7770,6 +7926,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7782,14 +7946,6 @@
     <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="692">
   <si>
     <t>Title</t>
   </si>
@@ -2130,12 +2130,31 @@
   <si>
     <t>Decision_AutomationData</t>
   </si>
+  <si>
+    <t>72480</t>
+  </si>
+  <si>
+    <t>Decision_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>93585</t>
+  </si>
+  <si>
+    <t>62557</t>
+  </si>
+  <si>
+    <t>52661</t>
+  </si>
+  <si>
+    <t>62308</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3106,11 +3125,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="5"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="16.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="10.81640625" collapsed="true"/>
+    <col min="5" max="16384" style="5" width="8.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3525,11 +3544,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="45.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" style="46" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" customWidth="true" style="46" width="37.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="46" width="45.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="46" width="19.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="46" width="33.81640625" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -7166,56 +7185,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.1796875" customWidth="1"/>
-    <col min="7" max="11" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="15.453125" customWidth="1"/>
-    <col min="33" max="33" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="29" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="27" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.1796875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="7" max="11" bestFit="true" customWidth="true" width="22.81640625" collapsed="true"/>
+    <col min="12" max="16" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="5.1796875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.81640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="31" max="32" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="53.6328125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="53.1796875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="21.1796875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="22.1796875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="25.08984375" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
@@ -7419,11 +7438,11 @@
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>9310</v>
+      <c r="A2" t="s">
+        <v>691</v>
       </c>
       <c r="C2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="594">
   <si>
     <t>Title</t>
   </si>
@@ -2339,6 +2339,12 @@
   </si>
   <si>
     <t>98328</t>
+  </si>
+  <si>
+    <t>53635</t>
+  </si>
+  <si>
+    <t>22384</t>
   </si>
 </sst>
 </file>
@@ -7105,7 +7111,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="596">
   <si>
     <t>Title</t>
   </si>
@@ -2345,6 +2345,12 @@
   </si>
   <si>
     <t>22384</t>
+  </si>
+  <si>
+    <t>42453</t>
+  </si>
+  <si>
+    <t>26158</t>
   </si>
 </sst>
 </file>
@@ -7111,7 +7117,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="597">
   <si>
     <t>Title</t>
   </si>
@@ -2351,6 +2351,9 @@
   </si>
   <si>
     <t>26158</t>
+  </si>
+  <si>
+    <t>51563</t>
   </si>
 </sst>
 </file>
@@ -7117,7 +7120,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="599">
   <si>
     <t>Title</t>
   </si>
@@ -2354,6 +2354,12 @@
   </si>
   <si>
     <t>51563</t>
+  </si>
+  <si>
+    <t>83138</t>
+  </si>
+  <si>
+    <t>43202</t>
   </si>
 </sst>
 </file>
@@ -7120,7 +7126,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="601">
   <si>
     <t>Title</t>
   </si>
@@ -2360,6 +2360,12 @@
   </si>
   <si>
     <t>43202</t>
+  </si>
+  <si>
+    <t>35911</t>
+  </si>
+  <si>
+    <t>55320</t>
   </si>
 </sst>
 </file>
@@ -7126,7 +7132,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="602">
   <si>
     <t>Title</t>
   </si>
@@ -2366,6 +2366,9 @@
   </si>
   <si>
     <t>55320</t>
+  </si>
+  <si>
+    <t>13680</t>
   </si>
 </sst>
 </file>
@@ -7132,7 +7135,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="603">
   <si>
     <t>Title</t>
   </si>
@@ -2369,6 +2369,9 @@
   </si>
   <si>
     <t>13680</t>
+  </si>
+  <si>
+    <t>60913</t>
   </si>
 </sst>
 </file>
@@ -7135,7 +7138,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="608">
   <si>
     <t>Title</t>
   </si>
@@ -2372,6 +2372,21 @@
   </si>
   <si>
     <t>60913</t>
+  </si>
+  <si>
+    <t>34127</t>
+  </si>
+  <si>
+    <t>49714</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>55701</t>
+  </si>
+  <si>
+    <t>97438</t>
   </si>
 </sst>
 </file>
@@ -7138,7 +7153,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="609">
   <si>
     <t>Title</t>
   </si>
@@ -2387,6 +2387,9 @@
   </si>
   <si>
     <t>97438</t>
+  </si>
+  <si>
+    <t>19065</t>
   </si>
 </sst>
 </file>
@@ -7153,7 +7156,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="611">
   <si>
     <t>Title</t>
   </si>
@@ -2390,6 +2390,12 @@
   </si>
   <si>
     <t>19065</t>
+  </si>
+  <si>
+    <t>71636</t>
+  </si>
+  <si>
+    <t>45117</t>
   </si>
 </sst>
 </file>
@@ -7156,7 +7162,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="622">
   <si>
     <t>Title</t>
   </si>
@@ -2396,6 +2396,39 @@
   </si>
   <si>
     <t>45117</t>
+  </si>
+  <si>
+    <t>58284</t>
+  </si>
+  <si>
+    <t>39121</t>
+  </si>
+  <si>
+    <t>29282</t>
+  </si>
+  <si>
+    <t>11713</t>
+  </si>
+  <si>
+    <t>47749</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>23071</t>
+  </si>
+  <si>
+    <t>55867</t>
+  </si>
+  <si>
+    <t>77171</t>
+  </si>
+  <si>
+    <t>82376</t>
+  </si>
+  <si>
+    <t>26024</t>
   </si>
 </sst>
 </file>
@@ -7162,7 +7195,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="623">
   <si>
     <t>Title</t>
   </si>
@@ -2429,6 +2429,9 @@
   </si>
   <si>
     <t>26024</t>
+  </si>
+  <si>
+    <t>73476</t>
   </si>
 </sst>
 </file>
@@ -7195,7 +7198,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Decision.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="648">
   <si>
     <t>Title</t>
   </si>
@@ -2432,6 +2432,81 @@
   </si>
   <si>
     <t>73476</t>
+  </si>
+  <si>
+    <t>54807</t>
+  </si>
+  <si>
+    <t>39217</t>
+  </si>
+  <si>
+    <t>18952</t>
+  </si>
+  <si>
+    <t>58910</t>
+  </si>
+  <si>
+    <t>58258</t>
+  </si>
+  <si>
+    <t>57733</t>
+  </si>
+  <si>
+    <t>27910</t>
+  </si>
+  <si>
+    <t>62623</t>
+  </si>
+  <si>
+    <t>80333</t>
+  </si>
+  <si>
+    <t>38746</t>
+  </si>
+  <si>
+    <t>28856</t>
+  </si>
+  <si>
+    <t>34311</t>
+  </si>
+  <si>
+    <t>70216</t>
+  </si>
+  <si>
+    <t>44930</t>
+  </si>
+  <si>
+    <t>64797</t>
+  </si>
+  <si>
+    <t>71831</t>
+  </si>
+  <si>
+    <t>40999</t>
+  </si>
+  <si>
+    <t>57563</t>
+  </si>
+  <si>
+    <t>62812</t>
+  </si>
+  <si>
+    <t>62409</t>
+  </si>
+  <si>
+    <t>25785</t>
+  </si>
+  <si>
+    <t>50171</t>
+  </si>
+  <si>
+    <t>82597</t>
+  </si>
+  <si>
+    <t>52509</t>
+  </si>
+  <si>
+    <t>68586</t>
   </si>
 </sst>
 </file>
@@ -7198,7 +7273,7 @@
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="15" t="s">
